--- a/data/positive_signals/Indirectly connected (A-X-B) - Allopurinol - Bullous eruptions.xlsx
+++ b/data/positive_signals/Indirectly connected (A-X-B) - Allopurinol - Bullous eruptions.xlsx
@@ -191,37 +191,37 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>117468220</t>
+    <t>68100303</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>58379134</t>
+  </si>
+  <si>
+    <t>does not treat</t>
+  </si>
+  <si>
+    <t>51343179</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>51274376</t>
   </si>
   <si>
     <t>treats</t>
   </si>
   <si>
-    <t>124765922</t>
-  </si>
-  <si>
-    <t>does not treat</t>
-  </si>
-  <si>
-    <t>134550579</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>147985972</t>
+    <t>83489523</t>
   </si>
   <si>
     <t>is not administered to</t>
   </si>
   <si>
-    <t>117541334</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>117459011</t>
+    <t>51266807</t>
   </si>
   <si>
     <t>is process of</t>
@@ -233,13 +233,214 @@
     <t>woman</t>
   </si>
   <si>
-    <t>151748049</t>
-  </si>
-  <si>
-    <t>126670160</t>
-  </si>
-  <si>
-    <t>120547375</t>
+    <t>60223556</t>
+  </si>
+  <si>
+    <t>85339483</t>
+  </si>
+  <si>
+    <t>54216638</t>
+  </si>
+  <si>
+    <t>209171</t>
+  </si>
+  <si>
+    <t>limb structure</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>94479794</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>59479264</t>
+  </si>
+  <si>
+    <t>is location of</t>
+  </si>
+  <si>
+    <t>684679</t>
+  </si>
+  <si>
+    <t>infant, newborn</t>
+  </si>
+  <si>
+    <t>68101069</t>
+  </si>
+  <si>
+    <t>55517824</t>
+  </si>
+  <si>
+    <t>301179</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>77691346</t>
+  </si>
+  <si>
+    <t>53424915</t>
+  </si>
+  <si>
+    <t>66139920</t>
+  </si>
+  <si>
+    <t>69987932</t>
+  </si>
+  <si>
+    <t>2517682</t>
+  </si>
+  <si>
+    <t>boys</t>
+  </si>
+  <si>
+    <t>69453183</t>
+  </si>
+  <si>
+    <t>58830242</t>
+  </si>
+  <si>
+    <t>4048321</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>72940724</t>
+  </si>
+  <si>
+    <t>58031670</t>
+  </si>
+  <si>
+    <t>650553</t>
+  </si>
+  <si>
+    <t>infant</t>
+  </si>
+  <si>
+    <t>54728206</t>
+  </si>
+  <si>
+    <t>59535999</t>
+  </si>
+  <si>
+    <t>78122755</t>
+  </si>
+  <si>
+    <t>4034949</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t>80532797</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>127281809</t>
+  </si>
+  <si>
+    <t>2518307</t>
+  </si>
+  <si>
+    <t>girls</t>
+  </si>
+  <si>
+    <t>85339796</t>
+  </si>
+  <si>
+    <t>66442537</t>
+  </si>
+  <si>
+    <t>5698619</t>
+  </si>
+  <si>
+    <t>autoimmune diseases</t>
+  </si>
+  <si>
+    <t>106804004</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>117920770</t>
+  </si>
+  <si>
+    <t>84843954</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>5648228</t>
+  </si>
+  <si>
+    <t>therapeutic procedure</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>83004041</t>
+  </si>
+  <si>
+    <t>precedes</t>
+  </si>
+  <si>
+    <t>114875757</t>
+  </si>
+  <si>
+    <t>is not method of</t>
+  </si>
+  <si>
+    <t>52656976</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>57369906</t>
+  </si>
+  <si>
+    <t>is lower than</t>
+  </si>
+  <si>
+    <t>51372267</t>
+  </si>
+  <si>
+    <t>57369608</t>
+  </si>
+  <si>
+    <t>51372153</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>57369537</t>
+  </si>
+  <si>
+    <t>90530082</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>102670790</t>
+  </si>
+  <si>
+    <t>does not use</t>
+  </si>
+  <si>
+    <t>66163822</t>
   </si>
   <si>
     <t>4033983</t>
@@ -248,181 +449,151 @@
     <t>pharmaceutical preparations</t>
   </si>
   <si>
-    <t>118863481</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>117467657</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>124986343</t>
-  </si>
-  <si>
-    <t>105766484</t>
+    <t>52605875</t>
+  </si>
+  <si>
+    <t>67116686</t>
+  </si>
+  <si>
+    <t>73069563</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>121354395</t>
+  </si>
+  <si>
+    <t>39414633</t>
   </si>
   <si>
     <t>is ingredient of</t>
   </si>
   <si>
-    <t>139468082</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>122962278</t>
+    <t>61904416</t>
+  </si>
+  <si>
+    <t>53974340</t>
   </si>
   <si>
     <t>interacts with</t>
   </si>
   <si>
-    <t>182539591</t>
+    <t>58088110</t>
+  </si>
+  <si>
+    <t>116407078</t>
   </si>
   <si>
     <t>is the same as</t>
   </si>
   <si>
-    <t>133458271</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>122879683</t>
+    <t>68123645</t>
+  </si>
+  <si>
+    <t>58088168</t>
+  </si>
+  <si>
+    <t>56567329</t>
+  </si>
+  <si>
+    <t>56689684</t>
+  </si>
+  <si>
+    <t>89525381</t>
   </si>
   <si>
     <t>stimulates</t>
   </si>
   <si>
-    <t>120310728</t>
-  </si>
-  <si>
-    <t>123081169</t>
-  </si>
-  <si>
-    <t>134621671</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>124492142</t>
-  </si>
-  <si>
-    <t>is lower than</t>
-  </si>
-  <si>
-    <t>155724138</t>
-  </si>
-  <si>
-    <t>187498954</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>124492072</t>
-  </si>
-  <si>
-    <t>142812784</t>
+    <t>51274272</t>
+  </si>
+  <si>
+    <t>59980758</t>
+  </si>
+  <si>
+    <t>76350720</t>
   </si>
   <si>
     <t>causes</t>
   </si>
   <si>
-    <t>209171</t>
-  </si>
-  <si>
-    <t>limb structure</t>
-  </si>
-  <si>
-    <t>Anatomy</t>
-  </si>
-  <si>
-    <t>160673845</t>
-  </si>
-  <si>
-    <t>disrupts</t>
-  </si>
-  <si>
-    <t>125832970</t>
-  </si>
-  <si>
-    <t>is location of</t>
-  </si>
-  <si>
-    <t>684679</t>
-  </si>
-  <si>
-    <t>infant, newborn</t>
-  </si>
-  <si>
-    <t>134551471</t>
-  </si>
-  <si>
-    <t>122056665</t>
-  </si>
-  <si>
-    <t>301179</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>141860443</t>
-  </si>
-  <si>
-    <t>132530237</t>
-  </si>
-  <si>
-    <t>119688430</t>
-  </si>
-  <si>
-    <t>136332181</t>
-  </si>
-  <si>
-    <t>2517682</t>
-  </si>
-  <si>
-    <t>boys</t>
-  </si>
-  <si>
-    <t>135846753</t>
-  </si>
-  <si>
-    <t>125271467</t>
-  </si>
-  <si>
-    <t>4048321</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>139259100</t>
-  </si>
-  <si>
-    <t>124432552</t>
-  </si>
-  <si>
-    <t>650553</t>
-  </si>
-  <si>
-    <t>infant</t>
-  </si>
-  <si>
-    <t>125966546</t>
-  </si>
-  <si>
-    <t>121135066</t>
-  </si>
-  <si>
-    <t>144464660</t>
+    <t>4028517</t>
+  </si>
+  <si>
+    <t>kidney failure, chronic</t>
+  </si>
+  <si>
+    <t>105458941</t>
+  </si>
+  <si>
+    <t>64109259</t>
+  </si>
+  <si>
+    <t>13306608</t>
+  </si>
+  <si>
+    <t>100928970</t>
+  </si>
+  <si>
+    <t>57273052</t>
+  </si>
+  <si>
+    <t>837528</t>
+  </si>
+  <si>
+    <t>captopril</t>
+  </si>
+  <si>
+    <t>80790375</t>
+  </si>
+  <si>
+    <t>converts to</t>
+  </si>
+  <si>
+    <t>74231788</t>
+  </si>
+  <si>
+    <t>758494</t>
+  </si>
+  <si>
+    <t>phenylbutazone</t>
+  </si>
+  <si>
+    <t>59509325</t>
+  </si>
+  <si>
+    <t>59508936</t>
+  </si>
+  <si>
+    <t>61382531</t>
+  </si>
+  <si>
+    <t>590091</t>
+  </si>
+  <si>
+    <t>male population group</t>
+  </si>
+  <si>
+    <t>116162520</t>
+  </si>
+  <si>
+    <t>73477845</t>
+  </si>
+  <si>
+    <t>99578394</t>
+  </si>
+  <si>
+    <t>5131040</t>
+  </si>
+  <si>
+    <t>pulmonary edema</t>
+  </si>
+  <si>
+    <t>82391172</t>
+  </si>
+  <si>
+    <t>55291627</t>
   </si>
   <si>
     <t>5127262</t>
@@ -431,190 +602,19 @@
     <t>pain</t>
   </si>
   <si>
-    <t>163937098</t>
-  </si>
-  <si>
-    <t>147083937</t>
-  </si>
-  <si>
-    <t>163936736</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>163936784</t>
-  </si>
-  <si>
-    <t>179706364</t>
-  </si>
-  <si>
-    <t>4034949</t>
-  </si>
-  <si>
-    <t>diagnosis</t>
-  </si>
-  <si>
-    <t>144890353</t>
-  </si>
-  <si>
-    <t>193498222</t>
-  </si>
-  <si>
-    <t>2518307</t>
-  </si>
-  <si>
-    <t>girls</t>
-  </si>
-  <si>
-    <t>151748356</t>
-  </si>
-  <si>
-    <t>132833551</t>
-  </si>
-  <si>
-    <t>5698619</t>
-  </si>
-  <si>
-    <t>autoimmune diseases</t>
-  </si>
-  <si>
-    <t>173026474</t>
-  </si>
-  <si>
-    <t>184130481</t>
-  </si>
-  <si>
-    <t>151224234</t>
-  </si>
-  <si>
-    <t>4028517</t>
-  </si>
-  <si>
-    <t>kidney failure, chronic</t>
-  </si>
-  <si>
-    <t>79608371</t>
-  </si>
-  <si>
-    <t>130475651</t>
-  </si>
-  <si>
-    <t>167124584</t>
-  </si>
-  <si>
-    <t>171669405</t>
-  </si>
-  <si>
-    <t>123657506</t>
-  </si>
-  <si>
-    <t>837528</t>
-  </si>
-  <si>
-    <t>captopril</t>
-  </si>
-  <si>
-    <t>145173908</t>
-  </si>
-  <si>
-    <t>converts to</t>
-  </si>
-  <si>
-    <t>140613064</t>
-  </si>
-  <si>
-    <t>758494</t>
-  </si>
-  <si>
-    <t>phenylbutazone</t>
-  </si>
-  <si>
-    <t>125927646</t>
-  </si>
-  <si>
-    <t>125927242</t>
-  </si>
-  <si>
-    <t>127797772</t>
-  </si>
-  <si>
-    <t>590091</t>
-  </si>
-  <si>
-    <t>male population group</t>
-  </si>
-  <si>
-    <t>182296892</t>
-  </si>
-  <si>
-    <t>139865623</t>
-  </si>
-  <si>
-    <t>165773837</t>
-  </si>
-  <si>
-    <t>5648228</t>
-  </si>
-  <si>
-    <t>therapeutic procedure</t>
-  </si>
-  <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>181080806</t>
-  </si>
-  <si>
-    <t>is not method of</t>
-  </si>
-  <si>
-    <t>117568591</t>
-  </si>
-  <si>
-    <t>117568493</t>
-  </si>
-  <si>
-    <t>123788873</t>
-  </si>
-  <si>
-    <t>118943518</t>
-  </si>
-  <si>
-    <t>156811482</t>
-  </si>
-  <si>
-    <t>123788920</t>
-  </si>
-  <si>
-    <t>147492310</t>
-  </si>
-  <si>
-    <t>precedes</t>
-  </si>
-  <si>
-    <t>168866939</t>
-  </si>
-  <si>
-    <t>does not use</t>
-  </si>
-  <si>
-    <t>123789206</t>
-  </si>
-  <si>
-    <t>132508592</t>
-  </si>
-  <si>
-    <t>5131040</t>
-  </si>
-  <si>
-    <t>pulmonary edema</t>
-  </si>
-  <si>
-    <t>148770588</t>
-  </si>
-  <si>
-    <t>121833297</t>
+    <t>97730905</t>
+  </si>
+  <si>
+    <t>97730504</t>
+  </si>
+  <si>
+    <t>80643519</t>
+  </si>
+  <si>
+    <t>97730554</t>
+  </si>
+  <si>
+    <t>113483617</t>
   </si>
   <si>
     <t>3113988</t>
@@ -623,25 +623,25 @@
     <t>hypersensitivity disease</t>
   </si>
   <si>
-    <t>164793433</t>
-  </si>
-  <si>
-    <t>194975546</t>
-  </si>
-  <si>
-    <t>173479068</t>
-  </si>
-  <si>
-    <t>128501291</t>
-  </si>
-  <si>
-    <t>120030341</t>
+    <t>98595644</t>
+  </si>
+  <si>
+    <t>128819874</t>
+  </si>
+  <si>
+    <t>53702537</t>
   </si>
   <si>
     <t>predisposes</t>
   </si>
   <si>
-    <t>183056067</t>
+    <t>62063116</t>
+  </si>
+  <si>
+    <t>107266184</t>
+  </si>
+  <si>
+    <t>116859123</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>184.0</v>
+        <v>44.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -947,13 +947,13 @@
         <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M3" t="s">
         <v>74</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
         <v>75</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -982,7 +982,7 @@
         <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
@@ -994,111 +994,21 @@
         <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O4" t="s">
         <v>82</v>
-      </c>
-      <c r="P4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>83</v>
-      </c>
-      <c r="R4" t="s">
-        <v>84</v>
-      </c>
-      <c r="S4" t="s">
-        <v>85</v>
-      </c>
-      <c r="T4" t="s">
-        <v>86</v>
-      </c>
-      <c r="U4" t="s">
-        <v>87</v>
-      </c>
-      <c r="V4" t="s">
-        <v>88</v>
-      </c>
-      <c r="W4" t="s">
-        <v>89</v>
-      </c>
-      <c r="X4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1110,13 +1020,13 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
         <v>56</v>
@@ -1128,16 +1038,16 @@
         <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1154,10 +1064,10 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
@@ -1172,15 +1082,27 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M6" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="N6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1198,10 +1120,10 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
@@ -1216,33 +1138,21 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M7" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
-      </c>
-      <c r="O7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>123</v>
-      </c>
-      <c r="R7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -1254,13 +1164,13 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -1272,21 +1182,21 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -1298,13 +1208,13 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
@@ -1316,16 +1226,22 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
         <v>64</v>
       </c>
       <c r="M9" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>66</v>
+      </c>
+      <c r="O9" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -1342,13 +1258,13 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
@@ -1360,22 +1276,16 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s">
-        <v>68</v>
-      </c>
-      <c r="O10" t="s">
-        <v>136</v>
-      </c>
-      <c r="P10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
@@ -1392,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
@@ -1410,39 +1320,21 @@
         <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M11" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="N11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O11" t="s">
-        <v>141</v>
-      </c>
-      <c r="P11" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>143</v>
-      </c>
-      <c r="R11" t="s">
-        <v>62</v>
-      </c>
-      <c r="S11" t="s">
-        <v>144</v>
-      </c>
-      <c r="T11" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -1454,10 +1346,10 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
         <v>58</v>
@@ -1472,21 +1364,27 @@
         <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="M12" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="O12" t="s">
+        <v>120</v>
+      </c>
+      <c r="P12" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -1498,13 +1396,13 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
@@ -1516,16 +1414,70 @@
         <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="N13" t="s">
-        <v>70</v>
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>129</v>
+      </c>
+      <c r="P13" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>131</v>
+      </c>
+      <c r="R13" t="s">
+        <v>132</v>
+      </c>
+      <c r="S13" t="s">
+        <v>133</v>
+      </c>
+      <c r="T13" t="s">
+        <v>109</v>
+      </c>
+      <c r="U13" t="s">
+        <v>134</v>
+      </c>
+      <c r="V13" t="s">
+        <v>132</v>
+      </c>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14">
@@ -1542,13 +1494,13 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
@@ -1560,22 +1512,106 @@
         <v>58</v>
       </c>
       <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="s">
+        <v>146</v>
+      </c>
+      <c r="N14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" t="s">
+        <v>147</v>
+      </c>
+      <c r="P14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>149</v>
+      </c>
+      <c r="R14" t="s">
+        <v>139</v>
+      </c>
+      <c r="S14" t="s">
+        <v>150</v>
+      </c>
+      <c r="T14" t="s">
+        <v>151</v>
+      </c>
+      <c r="U14" t="s">
+        <v>152</v>
+      </c>
+      <c r="V14" t="s">
+        <v>136</v>
+      </c>
+      <c r="W14" t="s">
+        <v>153</v>
+      </c>
+      <c r="X14" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y14" t="s">
         <v>155</v>
       </c>
-      <c r="L14" t="s">
-        <v>142</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="Z14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA14" t="s">
         <v>156</v>
       </c>
-      <c r="N14" t="s">
-        <v>60</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="AB14" t="s">
         <v>157</v>
       </c>
-      <c r="P14" t="s">
-        <v>92</v>
+      <c r="AC14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="15">
@@ -1592,10 +1628,10 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="G15" t="s">
         <v>58</v>
@@ -1610,34 +1646,34 @@
         <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s">
         <v>60</v>
       </c>
       <c r="M15" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="O15" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P15" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="Q15" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="R15" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="S15" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="T15" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
@@ -1654,10 +1690,10 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="G16" t="s">
         <v>52</v>
@@ -1672,16 +1708,16 @@
         <v>58</v>
       </c>
       <c r="K16" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16" t="s">
+        <v>178</v>
+      </c>
+      <c r="M16" t="s">
+        <v>179</v>
+      </c>
+      <c r="N16" t="s">
         <v>167</v>
-      </c>
-      <c r="L16" t="s">
-        <v>168</v>
-      </c>
-      <c r="M16" t="s">
-        <v>169</v>
-      </c>
-      <c r="N16" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1698,10 +1734,10 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
         <v>52</v>
@@ -1716,22 +1752,22 @@
         <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="M17" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="N17" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="O17" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="P17" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
@@ -1748,10 +1784,10 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G18" t="s">
         <v>55</v>
@@ -1766,19 +1802,19 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M18" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="N18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O18" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="P18" t="s">
         <v>70</v>
@@ -1798,13 +1834,13 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F19" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>56</v>
@@ -1816,70 +1852,16 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="M19" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s">
-        <v>98</v>
-      </c>
-      <c r="O19" t="s">
-        <v>186</v>
-      </c>
-      <c r="P19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>187</v>
-      </c>
-      <c r="R19" t="s">
-        <v>79</v>
-      </c>
-      <c r="S19" t="s">
-        <v>188</v>
-      </c>
-      <c r="T19" t="s">
-        <v>79</v>
-      </c>
-      <c r="U19" t="s">
-        <v>189</v>
-      </c>
-      <c r="V19" t="s">
-        <v>103</v>
-      </c>
-      <c r="W19" t="s">
-        <v>190</v>
-      </c>
-      <c r="X19" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
@@ -1896,10 +1878,10 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G20" t="s">
         <v>58</v>
@@ -1914,16 +1896,34 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" t="s">
+        <v>197</v>
+      </c>
+      <c r="N20" t="s">
+        <v>118</v>
+      </c>
+      <c r="O20" t="s">
+        <v>198</v>
+      </c>
+      <c r="P20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20" t="s">
         <v>199</v>
       </c>
-      <c r="L20" t="s">
-        <v>111</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="R20" t="s">
+        <v>62</v>
+      </c>
+      <c r="S20" t="s">
         <v>200</v>
       </c>
-      <c r="N20" t="s">
-        <v>92</v>
+      <c r="T20" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="21">
@@ -1961,37 +1961,37 @@
         <v>203</v>
       </c>
       <c r="L21" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M21" t="s">
         <v>204</v>
       </c>
       <c r="N21" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="O21" t="s">
         <v>205</v>
       </c>
       <c r="P21" t="s">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="Q21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="R21" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="S21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T21" t="s">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="U21" t="s">
         <v>209</v>
       </c>
       <c r="V21" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
